--- a/BackTest/2019-10-30 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-30 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>342825.5875113208</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>342825.5875113208</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>42.4</v>
@@ -521,7 +521,7 @@
         <v>344912.4580113208</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>42.4</v>
@@ -562,7 +562,7 @@
         <v>327774.5552113208</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>42.5</v>
@@ -603,7 +603,7 @@
         <v>332428.7199113208</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>42.2</v>
@@ -644,7 +644,7 @@
         <v>360311.1377113208</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>42.5</v>
@@ -685,7 +685,7 @@
         <v>360311.1377113208</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>42.7</v>
@@ -726,7 +726,7 @@
         <v>360311.1377113208</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>42.7</v>
@@ -767,11 +767,9 @@
         <v>360311.1377113208</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>42.4</v>
       </c>
@@ -808,7 +806,7 @@
         <v>365606.2723113208</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>42.7</v>
@@ -849,11 +847,9 @@
         <v>365606.2723113208</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>42.4</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>364295.7835113208</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>41.8</v>
@@ -1087,7 +1083,7 @@
         <v>317884.6743113208</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>42.5</v>
@@ -1128,7 +1124,7 @@
         <v>311012.6743113208</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>42.3</v>
@@ -1169,7 +1165,7 @@
         <v>311012.6743113208</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>42</v>
@@ -1210,7 +1206,7 @@
         <v>311012.6743113208</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>42</v>
@@ -1251,9 +1247,11 @@
         <v>325273.6743113208</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>42</v>
+      </c>
       <c r="J22" t="n">
         <v>42.4</v>
       </c>
@@ -1290,9 +1288,11 @@
         <v>325447.6743113208</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J23" t="n">
         <v>42.4</v>
       </c>
@@ -1329,9 +1329,11 @@
         <v>344712.6743113208</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J24" t="n">
         <v>42.4</v>
       </c>
@@ -1368,9 +1370,11 @@
         <v>344692.6743113208</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J25" t="n">
         <v>42.4</v>
       </c>
@@ -1407,9 +1411,11 @@
         <v>344702.7743113208</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42</v>
+      </c>
       <c r="J26" t="n">
         <v>42.4</v>
       </c>
@@ -1446,9 +1452,11 @@
         <v>16702.7743113208</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J27" t="n">
         <v>42.4</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>57702.7743113208</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>41.7</v>
@@ -1526,7 +1534,7 @@
         <v>85702.7743113208</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>42.2</v>
@@ -1567,7 +1575,7 @@
         <v>85702.7743113208</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>42.4</v>
@@ -1608,7 +1616,7 @@
         <v>101110.7743113208</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>42.4</v>
@@ -1649,7 +1657,7 @@
         <v>101110.7743113208</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>42.5</v>
@@ -1690,7 +1698,7 @@
         <v>89000.7743113208</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>42.5</v>
@@ -1731,7 +1739,7 @@
         <v>88207.4348113208</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>42.4</v>
@@ -1772,9 +1780,11 @@
         <v>88217.5348113208</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J35" t="n">
         <v>42.4</v>
       </c>
@@ -1811,9 +1821,11 @@
         <v>87487.2201113208</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J36" t="n">
         <v>42.4</v>
       </c>
@@ -1850,9 +1862,11 @@
         <v>87725.2201113208</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J37" t="n">
         <v>42.4</v>
       </c>
@@ -1889,7 +1903,7 @@
         <v>1729.581411320803</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>42.2</v>
@@ -1930,7 +1944,7 @@
         <v>7663.581411320803</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>42.1</v>
@@ -1971,7 +1985,7 @@
         <v>6687.122011320804</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>42.2</v>
@@ -2012,7 +2026,7 @@
         <v>7133.122011320804</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>42</v>
@@ -2053,7 +2067,7 @@
         <v>56657.7292113208</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>42.1</v>
@@ -2094,7 +2108,7 @@
         <v>56657.7292113208</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>42.3</v>
@@ -2135,7 +2149,7 @@
         <v>65236.5475113208</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>42.3</v>
@@ -2176,7 +2190,7 @@
         <v>65236.5475113208</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>42.5</v>
@@ -2217,7 +2231,7 @@
         <v>85380.5804113208</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>42.5</v>
@@ -2258,7 +2272,7 @@
         <v>84020.3674113208</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>42.6</v>
@@ -2299,9 +2313,11 @@
         <v>84020.3674113208</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J48" t="n">
         <v>42.4</v>
       </c>
@@ -2338,7 +2354,7 @@
         <v>148363.6301113208</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>42.3</v>
@@ -2379,9 +2395,11 @@
         <v>171336.7746113208</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J50" t="n">
         <v>42.4</v>
       </c>
@@ -2418,9 +2436,11 @@
         <v>278554.5788113208</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J51" t="n">
         <v>42.4</v>
       </c>
@@ -2457,9 +2477,11 @@
         <v>340487.8256113208</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J52" t="n">
         <v>42.4</v>
       </c>
@@ -2496,9 +2518,11 @@
         <v>340487.8256113208</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J53" t="n">
         <v>42.4</v>
       </c>
@@ -3588,9 +3612,11 @@
         <v>-108073.3191886792</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J81" t="n">
         <v>42.4</v>
       </c>
@@ -3627,9 +3653,11 @@
         <v>-104622.8956886792</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J82" t="n">
         <v>42.4</v>
       </c>
@@ -3822,9 +3850,11 @@
         <v>-144904.6342886792</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J87" t="n">
         <v>42.4</v>
       </c>
@@ -3861,9 +3891,11 @@
         <v>-144904.6342886792</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J88" t="n">
         <v>42.4</v>
       </c>
@@ -3900,9 +3932,11 @@
         <v>-200079.6760886792</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J89" t="n">
         <v>42.4</v>
       </c>
@@ -3939,9 +3973,11 @@
         <v>-199412.2292886792</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>42</v>
+      </c>
       <c r="J90" t="n">
         <v>42.4</v>
       </c>
@@ -3978,9 +4014,11 @@
         <v>-198584.6301886792</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J91" t="n">
         <v>42.4</v>
       </c>
@@ -4017,9 +4055,11 @@
         <v>-199312.2292886792</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J92" t="n">
         <v>42.4</v>
       </c>
@@ -4056,9 +4096,11 @@
         <v>-307528.9679886792</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J93" t="n">
         <v>42.4</v>
       </c>
@@ -4095,9 +4137,11 @@
         <v>-307528.9679886792</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>42</v>
+      </c>
       <c r="J94" t="n">
         <v>42.4</v>
       </c>
@@ -4134,9 +4178,11 @@
         <v>-306361.9133886792</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>42</v>
+      </c>
       <c r="J95" t="n">
         <v>42.4</v>
       </c>
@@ -4173,9 +4219,11 @@
         <v>-306361.9133886792</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J96" t="n">
         <v>42.4</v>
       </c>
@@ -4212,9 +4260,11 @@
         <v>-306361.9133886792</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J97" t="n">
         <v>42.4</v>
       </c>
@@ -4251,9 +4301,11 @@
         <v>-367526.5795886792</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J98" t="n">
         <v>42.4</v>
       </c>
@@ -4290,9 +4342,11 @@
         <v>-377299.6911886792</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J99" t="n">
         <v>42.4</v>
       </c>
@@ -4329,9 +4383,11 @@
         <v>-485841.3326886792</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J100" t="n">
         <v>42.4</v>
       </c>
@@ -4368,9 +4424,11 @@
         <v>-485828.6462886792</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J101" t="n">
         <v>42.4</v>
       </c>
@@ -4407,9 +4465,11 @@
         <v>-485828.6462886792</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J102" t="n">
         <v>42.4</v>
       </c>
@@ -4446,9 +4506,11 @@
         <v>-485828.6462886792</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J103" t="n">
         <v>42.4</v>
       </c>
@@ -4485,9 +4547,11 @@
         <v>-337623.6462886792</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J104" t="n">
         <v>42.4</v>
       </c>
@@ -4524,9 +4588,11 @@
         <v>-339103.6552886792</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>42</v>
+      </c>
       <c r="J105" t="n">
         <v>42.4</v>
       </c>
@@ -4563,9 +4629,11 @@
         <v>-338603.7289886792</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J106" t="n">
         <v>42.4</v>
       </c>
@@ -4602,9 +4670,11 @@
         <v>-338603.7289886792</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J107" t="n">
         <v>42.4</v>
       </c>
@@ -4641,9 +4711,11 @@
         <v>-356938.1425886792</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J108" t="n">
         <v>42.4</v>
       </c>
@@ -4680,9 +4752,11 @@
         <v>-356938.1425886792</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J109" t="n">
         <v>42.4</v>
       </c>
@@ -4719,7 +4793,7 @@
         <v>-356938.1425886792</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>41.8</v>
@@ -4760,9 +4834,11 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J111" t="n">
         <v>42.4</v>
       </c>
@@ -4799,7 +4875,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>41.7</v>
@@ -4840,7 +4916,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>41.7</v>
@@ -4881,9 +4957,11 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J114" t="n">
         <v>42.4</v>
       </c>
@@ -4920,7 +4998,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>41.7</v>
@@ -4961,7 +5039,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>41.7</v>
@@ -5002,7 +5080,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>41.7</v>
@@ -5043,7 +5121,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>41.7</v>
@@ -5084,7 +5162,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>41.7</v>
@@ -5125,7 +5203,7 @@
         <v>-393538.1425886792</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>41.7</v>
@@ -5166,7 +5244,7 @@
         <v>-393538.1425886792</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>41.5</v>
@@ -5207,7 +5285,7 @@
         <v>-393538.1425886792</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>41.5</v>
@@ -5248,7 +5326,7 @@
         <v>-386881.4276886792</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>41.5</v>
@@ -5289,7 +5367,7 @@
         <v>-384381.4276886792</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>41.6</v>
@@ -5330,7 +5408,7 @@
         <v>-384127.7372886792</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>41.7</v>
@@ -5371,7 +5449,7 @@
         <v>-384905.7460886792</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>42</v>
@@ -5412,7 +5490,7 @@
         <v>-384889.9800886792</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>41.6</v>
@@ -5453,7 +5531,7 @@
         <v>-384889.9800886792</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>42</v>
@@ -5494,7 +5572,7 @@
         <v>-384889.9800886792</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>42</v>
@@ -5535,7 +5613,7 @@
         <v>-384889.9800886792</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>42</v>
@@ -5576,7 +5654,7 @@
         <v>-295809.3049886792</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>42</v>
@@ -5617,7 +5695,7 @@
         <v>-294508.1059886792</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>42.1</v>
@@ -5658,7 +5736,7 @@
         <v>-287361.6367886792</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>42.2</v>
@@ -5699,7 +5777,7 @@
         <v>-203143.4026886792</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>42.6</v>
@@ -5740,7 +5818,7 @@
         <v>-261063.4026886792</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>42.7</v>
@@ -5781,7 +5859,7 @@
         <v>-261063.4026886792</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>42.6</v>
@@ -5822,7 +5900,7 @@
         <v>-195463.4026886792</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>42.6</v>
@@ -5863,7 +5941,7 @@
         <v>-196064.3019886792</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>43</v>
@@ -5904,7 +5982,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>42.9</v>
@@ -5945,7 +6023,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>43</v>
@@ -5986,7 +6064,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>43</v>
@@ -6027,7 +6105,7 @@
         <v>-123561.4268886792</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>43</v>
@@ -6068,7 +6146,7 @@
         <v>146215.5523113208</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>43.1</v>
@@ -6109,9 +6187,11 @@
         <v>146215.5523113208</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J144" t="n">
         <v>42.4</v>
       </c>
@@ -6148,9 +6228,11 @@
         <v>420999.7482113208</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J145" t="n">
         <v>42.4</v>
       </c>
@@ -6187,9 +6269,11 @@
         <v>860020.9505113208</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J146" t="n">
         <v>42.4</v>
       </c>
@@ -6382,9 +6466,11 @@
         <v>1208748.756411321</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>44.1</v>
+      </c>
       <c r="J151" t="n">
         <v>42.4</v>
       </c>
@@ -6499,9 +6585,11 @@
         <v>925486.3951452574</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>44</v>
+      </c>
       <c r="J154" t="n">
         <v>42.4</v>
       </c>
@@ -6577,9 +6665,11 @@
         <v>896542.1266452573</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J156" t="n">
         <v>42.4</v>
       </c>
@@ -6616,9 +6706,11 @@
         <v>896542.1266452573</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J157" t="n">
         <v>42.4</v>
       </c>
@@ -6655,9 +6747,11 @@
         <v>876093.2180452574</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J158" t="n">
         <v>42.4</v>
       </c>
@@ -6694,9 +6788,11 @@
         <v>907142.6216452573</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J159" t="n">
         <v>42.4</v>
       </c>
@@ -6772,9 +6868,11 @@
         <v>899655.6978452574</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J161" t="n">
         <v>42.4</v>
       </c>
@@ -6850,11 +6948,9 @@
         <v>826976.2765452573</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>42.4</v>
       </c>
@@ -6891,11 +6987,9 @@
         <v>781391.7669452573</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>43.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>42.4</v>
       </c>
@@ -6932,7 +7026,7 @@
         <v>708352.1524452573</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>43.1</v>
@@ -7207,9 +7301,11 @@
         <v>502249.4617452574</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J172" t="n">
         <v>42.4</v>
       </c>
@@ -7246,9 +7342,11 @@
         <v>460275.0654452574</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J173" t="n">
         <v>42.4</v>
       </c>
@@ -7285,9 +7383,11 @@
         <v>424975.9273452574</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J174" t="n">
         <v>42.4</v>
       </c>
@@ -7324,9 +7424,11 @@
         <v>424975.9273452574</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J175" t="n">
         <v>42.4</v>
       </c>
@@ -7363,9 +7465,11 @@
         <v>425015.5994452574</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J176" t="n">
         <v>42.4</v>
       </c>
@@ -7402,9 +7506,11 @@
         <v>284817.9951452574</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>43</v>
+      </c>
       <c r="J177" t="n">
         <v>42.4</v>
       </c>
@@ -7480,9 +7586,11 @@
         <v>287494.9905452574</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>43</v>
+      </c>
       <c r="J179" t="n">
         <v>42.4</v>
       </c>
@@ -7558,9 +7666,11 @@
         <v>387118.5850452574</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J181" t="n">
         <v>42.4</v>
       </c>
@@ -9001,7 +9111,7 @@
         <v>2098638.710968562</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
@@ -9235,7 +9345,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
@@ -9274,7 +9384,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9313,7 +9423,7 @@
         <v>2220728.706370548</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
@@ -9352,7 +9462,7 @@
         <v>1926143.361303772</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
@@ -9391,7 +9501,7 @@
         <v>2078532.682802081</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
@@ -9430,7 +9540,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
@@ -9469,7 +9579,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
@@ -9508,7 +9618,7 @@
         <v>1450675.216102081</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
@@ -9547,7 +9657,7 @@
         <v>1630775.180402081</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
@@ -9586,7 +9696,7 @@
         <v>1651147.212802081</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
@@ -10483,7 +10593,7 @@
         <v>1644588.366602081</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
@@ -10491,13 +10601,15 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>1.086981132075472</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1.004728132387707</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10525,14 +10637,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10561,17 +10667,11 @@
         <v>1648171.934702081</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +10703,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +10736,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +10769,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +10802,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +10835,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +10868,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +10901,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +10934,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +10967,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +11000,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +11033,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +11066,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +11099,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +11132,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +11165,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +11198,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +11231,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +11264,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +11297,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +11330,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +11363,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +11396,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +11429,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +11462,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +11495,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +11528,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +11561,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +11594,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +11627,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +11660,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +11693,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +11726,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +11759,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +11792,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +11825,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +11858,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +11891,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12043,23 +11921,15 @@
         <v>1190359.818322884</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>1.094056603773585</v>
-      </c>
-      <c r="M296" t="n">
-        <v>1.004728132387707</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12249,7 +12119,7 @@
         <v>1224728.913801517</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12315,7 +12185,7 @@
         <v>1230849.951401517</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -14262,7 +14132,7 @@
         <v>1365759.811026142</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14295,7 +14165,7 @@
         <v>1288052.734926142</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14889,7 +14759,7 @@
         <v>1549953.80892743</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14955,7 +14825,7 @@
         <v>1549953.80892743</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14988,7 +14858,7 @@
         <v>1574353.80892743</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -18321,7 +18191,7 @@
         <v>867958.0709694795</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18354,7 +18224,7 @@
         <v>867958.0709694795</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18387,7 +18257,7 @@
         <v>845114.2176694795</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18420,7 +18290,7 @@
         <v>823440.1510694795</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19080,7 +18950,7 @@
         <v>664053.0796694795</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19113,7 +18983,7 @@
         <v>664064.1796694795</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19146,7 +19016,7 @@
         <v>497733.2520694795</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19179,7 +19049,7 @@
         <v>550266.6763694795</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19212,7 +19082,7 @@
         <v>549684.4092694795</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19245,7 +19115,7 @@
         <v>502846.8436694795</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -21159,7 +21029,7 @@
         <v>1047459.142566094</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21192,7 +21062,7 @@
         <v>1094346.637066094</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21258,7 +21128,7 @@
         <v>1097095.844966094</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21291,7 +21161,7 @@
         <v>1628386.909866095</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21324,7 +21194,7 @@
         <v>1628386.909866095</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21357,7 +21227,7 @@
         <v>1754814.021866095</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21390,7 +21260,7 @@
         <v>2234327.318666094</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21423,7 +21293,7 @@
         <v>1752572.534799152</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21456,7 +21326,7 @@
         <v>1881735.387966575</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21489,7 +21359,7 @@
         <v>1726206.586876285</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21522,7 +21392,7 @@
         <v>1779290.632892968</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21555,7 +21425,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21588,7 +21458,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21621,7 +21491,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21786,7 +21656,7 @@
         <v>1761034.060480686</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21819,7 +21689,7 @@
         <v>1756010.167180686</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21885,7 +21755,7 @@
         <v>1728801.117580686</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21918,7 +21788,7 @@
         <v>1775797.077380686</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21951,7 +21821,7 @@
         <v>1775797.077380686</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21984,7 +21854,7 @@
         <v>1778356.361280686</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22017,7 +21887,7 @@
         <v>1778356.361280686</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22050,7 +21920,7 @@
         <v>1784748.345280686</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22083,7 +21953,7 @@
         <v>1754892.586380686</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22116,7 +21986,7 @@
         <v>1748225.038180686</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22149,7 +22019,7 @@
         <v>1097465.549980686</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22182,7 +22052,7 @@
         <v>1197634.797280686</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22215,7 +22085,7 @@
         <v>1261834.797280686</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22281,7 +22151,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22314,7 +22184,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22908,7 +22778,7 @@
         <v>957614.4065806856</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22941,7 +22811,7 @@
         <v>952283.7064806856</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22974,7 +22844,7 @@
         <v>1052487.916680686</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24426,7 +24296,7 @@
         <v>990439.8484806857</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24690,7 +24560,7 @@
         <v>284106.9408730097</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24723,7 +24593,7 @@
         <v>284017.1246730097</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24756,7 +24626,7 @@
         <v>284017.1246730097</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24789,7 +24659,7 @@
         <v>284017.1246730097</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24822,7 +24692,7 @@
         <v>284017.1246730097</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -28881,7 +28751,7 @@
         <v>55948.94901424031</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28914,7 +28784,7 @@
         <v>42175.37301424031</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28947,7 +28817,7 @@
         <v>11295.34161424031</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28980,7 +28850,7 @@
         <v>73998.43831424031</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29013,7 +28883,7 @@
         <v>47390.20421424031</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29046,7 +28916,7 @@
         <v>-33530.8534857597</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29079,7 +28949,7 @@
         <v>7185.0314142403</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29112,7 +28982,7 @@
         <v>7168.8595142403</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29145,7 +29015,7 @@
         <v>26522.7106142403</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29178,7 +29048,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29211,7 +29081,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29244,7 +29114,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29277,7 +29147,7 @@
         <v>120537.7247142403</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29310,7 +29180,7 @@
         <v>185095.3777142403</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29343,7 +29213,7 @@
         <v>183125.5821142403</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29376,7 +29246,7 @@
         <v>181638.7940142403</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29409,7 +29279,7 @@
         <v>98115.31111424026</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29442,7 +29312,7 @@
         <v>57426.39611424026</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29475,7 +29345,7 @@
         <v>-79769.86738575975</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29508,7 +29378,7 @@
         <v>-51032.06138575975</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29541,7 +29411,7 @@
         <v>-171914.7385857598</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29574,7 +29444,7 @@
         <v>-391501.7275459984</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29607,7 +29477,7 @@
         <v>-326975.1120459984</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29640,7 +29510,7 @@
         <v>-350408.9827459984</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29673,7 +29543,7 @@
         <v>-527021.7904459984</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29706,7 +29576,7 @@
         <v>-478718.7970291667</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29739,7 +29609,7 @@
         <v>-478718.7970291667</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29772,7 +29642,7 @@
         <v>-518018.7970291667</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29805,7 +29675,7 @@
         <v>-411381.7270291667</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29838,7 +29708,7 @@
         <v>-467878.2551291667</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29871,7 +29741,7 @@
         <v>-441854.4347291667</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29904,7 +29774,7 @@
         <v>-454831.9952291667</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29937,7 +29807,7 @@
         <v>-503200.3592291667</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29970,7 +29840,7 @@
         <v>-624208.9022291667</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30003,7 +29873,7 @@
         <v>-609569.029497891</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30036,7 +29906,7 @@
         <v>-345218.439797891</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30069,7 +29939,7 @@
         <v>-349818.439797891</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30102,7 +29972,7 @@
         <v>-349818.439797891</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30245,6 +30115,6 @@
       <c r="M847" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>